--- a/questionnaires/RBDstandardized_questionnaireLHCS_CARI.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireLHCS_CARI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_FS_CH_guide_EN\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CF6076-8FC0-4CC4-97C4-26B9499021D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832511F7-FCD2-488B-9039-6BA6B5308B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1680" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>type</t>
   </si>
@@ -81,9 +81,6 @@
     <t>choice_filter</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>form_title</t>
   </si>
   <si>
-    <t>During the past 30 days, did anyone in your household have to engage in any following behaviours due to a lack of food or a lack of money to buy food?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> note</t>
   </si>
   <si>
@@ -138,15 +132,9 @@
     <t>English</t>
   </si>
   <si>
-    <t>Livelihood Copings Strategies Light Module (pg. 46, https://documents.wfp.org/stellent/groups/public/documents/manual_guide_proced/wfp271449.pdf)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yes </t>
   </si>
   <si>
-    <t>noteLhCSIlt</t>
-  </si>
-  <si>
     <t>note2</t>
   </si>
   <si>
@@ -163,9 +151,6 @@
   </si>
   <si>
     <t>select_one lhcslt</t>
-  </si>
-  <si>
-    <t>standardized_copingquestionnaire</t>
   </si>
   <si>
     <t>No; because I already sold those assets or did this activity in the last 12 months and cannot continue to do it</t>
@@ -762,6 +747,17 @@
   </si>
   <si>
     <t>LhCSIEmergency3</t>
+  </si>
+  <si>
+    <t>standardized_lhcsquestionnaire</t>
+  </si>
+  <si>
+    <t>LIVELIHOOD COPING STRATEGIES 
+During the past 30 days, did anyone in your household have to engage in any following behaviours due to a lack of food or a lack of money to buy food?</t>
+  </si>
+  <si>
+    <t>STRATÉGIE D’APAPTION AUX MOYENS D’EXISTENCE
+ Au cours des 30 derniers jours, un membre de votre ménage a-t-il dû adopter un des comportements suivants en raison d'un manque de nourriture ou d'argent pour acheter de la nourriture ?</t>
   </si>
 </sst>
 </file>
@@ -1731,12 +1727,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q162"/>
+  <dimension ref="A1:Q161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1767,19 +1763,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>21</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>18</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>5</v>
@@ -1808,313 +1804,312 @@
     </row>
     <row r="2" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>56</v>
+      <c r="A7" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="77" t="s">
-        <v>44</v>
-      </c>
       <c r="D8" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="73" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>14</v>
+      <c r="A10" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="80" t="s">
-        <v>62</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="40"/>
+      <c r="E16" s="50"/>
+      <c r="M16" s="50"/>
     </row>
     <row r="17" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="40"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="38"/>
       <c r="E17" s="50"/>
       <c r="M17" s="50"/>
     </row>
     <row r="18" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="38"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
       <c r="E18" s="50"/>
-      <c r="M18" s="50"/>
+      <c r="M18" s="33"/>
     </row>
     <row r="19" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
-      <c r="B19" s="39"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="40"/>
       <c r="E19" s="50"/>
-      <c r="M19" s="33"/>
+      <c r="M19" s="50"/>
     </row>
     <row r="20" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="40"/>
       <c r="E20" s="50"/>
       <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="40"/>
       <c r="E21" s="50"/>
-      <c r="M21" s="50"/>
+      <c r="M21" s="33"/>
     </row>
     <row r="22" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="40"/>
       <c r="E22" s="50"/>
-      <c r="M22" s="33"/>
+      <c r="M22" s="50"/>
     </row>
     <row r="23" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
+      <c r="A23"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="40"/>
       <c r="E23" s="50"/>
-      <c r="M23" s="50"/>
+      <c r="M23" s="55"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
-      <c r="B24" s="41"/>
+      <c r="B24"/>
       <c r="C24" s="40"/>
       <c r="E24" s="50"/>
-      <c r="M24" s="55"/>
+      <c r="M24" s="56"/>
     </row>
     <row r="25" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="40"/>
       <c r="E25" s="50"/>
       <c r="M25" s="56"/>
     </row>
     <row r="26" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="3"/>
+      <c r="A26"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="40"/>
       <c r="E26" s="50"/>
-      <c r="M26" s="56"/>
+      <c r="M26" s="55"/>
     </row>
     <row r="27" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
-      <c r="B27" s="41"/>
+      <c r="B27"/>
       <c r="C27" s="40"/>
       <c r="E27" s="50"/>
-      <c r="M27" s="55"/>
+      <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28"/>
+      <c r="A28" s="10"/>
       <c r="B28"/>
       <c r="C28" s="40"/>
       <c r="E28" s="50"/>
       <c r="M28" s="56"/>
     </row>
     <row r="29" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29"/>
+      <c r="A29"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="40"/>
       <c r="E29" s="50"/>
-      <c r="M29" s="56"/>
+      <c r="M29" s="55"/>
     </row>
     <row r="30" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
-      <c r="B30" s="41"/>
+      <c r="B30"/>
       <c r="C30" s="40"/>
       <c r="E30" s="50"/>
-      <c r="M30" s="55"/>
+      <c r="M30" s="56"/>
     </row>
     <row r="31" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31"/>
-      <c r="B31"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="40"/>
       <c r="E31" s="50"/>
       <c r="M31" s="56"/>
     </row>
     <row r="32" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="40"/>
+      <c r="A32"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
       <c r="E32" s="50"/>
-      <c r="M32" s="56"/>
+      <c r="M32" s="55"/>
     </row>
     <row r="33" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
-      <c r="B33" s="41"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="42"/>
       <c r="E33" s="50"/>
-      <c r="M33" s="55"/>
+      <c r="M33" s="57"/>
     </row>
     <row r="34" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="42"/>
-      <c r="E34" s="50"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="44"/>
+      <c r="E34" s="43"/>
       <c r="M34" s="57"/>
     </row>
     <row r="35" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="3"/>
+      <c r="A35"/>
+      <c r="B35"/>
       <c r="C35" s="44"/>
       <c r="E35" s="43"/>
-      <c r="M35" s="57"/>
+      <c r="M35"/>
     </row>
     <row r="36" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
@@ -2124,148 +2119,148 @@
       <c r="M36"/>
     </row>
     <row r="37" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37" s="44"/>
-      <c r="E37" s="43"/>
-      <c r="M37"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="45"/>
+      <c r="E37" s="50"/>
+      <c r="M37" s="32"/>
     </row>
     <row r="38" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="33"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="45"/>
       <c r="E38" s="50"/>
-      <c r="M38" s="32"/>
+      <c r="M38" s="47"/>
     </row>
     <row r="39" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="47"/>
+      <c r="A39"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="45"/>
       <c r="E39" s="50"/>
-      <c r="M39" s="47"/>
+      <c r="M39" s="43"/>
     </row>
     <row r="40" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
-      <c r="B40" s="35"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="45"/>
       <c r="E40" s="50"/>
       <c r="M40" s="43"/>
     </row>
     <row r="41" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="48"/>
       <c r="C41" s="45"/>
       <c r="E41" s="50"/>
       <c r="M41" s="43"/>
     </row>
     <row r="42" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="48"/>
+      <c r="A42"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="45"/>
       <c r="E42" s="50"/>
       <c r="M42" s="43"/>
     </row>
     <row r="43" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
-      <c r="B43" s="35"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="45"/>
       <c r="E43" s="50"/>
       <c r="M43" s="43"/>
     </row>
     <row r="44" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="45"/>
       <c r="C44" s="45"/>
       <c r="E44" s="50"/>
       <c r="M44" s="43"/>
     </row>
     <row r="45" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="49"/>
       <c r="E45" s="50"/>
-      <c r="M45" s="43"/>
+      <c r="M45" s="32"/>
     </row>
     <row r="46" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
-      <c r="B46" s="33"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="49"/>
       <c r="E46" s="50"/>
-      <c r="M46" s="32"/>
+      <c r="M46" s="46"/>
     </row>
     <row r="47" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="3"/>
       <c r="C47" s="49"/>
       <c r="E47" s="50"/>
       <c r="M47" s="46"/>
     </row>
     <row r="48" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="3"/>
+      <c r="A48"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="49"/>
       <c r="E48" s="50"/>
-      <c r="M48" s="46"/>
+      <c r="M48" s="58"/>
     </row>
     <row r="49" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
-      <c r="B49" s="41"/>
+      <c r="B49"/>
       <c r="C49" s="49"/>
       <c r="E49" s="50"/>
       <c r="M49" s="58"/>
     </row>
     <row r="50" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50"/>
+      <c r="A50" s="10"/>
       <c r="B50"/>
       <c r="C50" s="49"/>
       <c r="E50" s="50"/>
       <c r="M50" s="58"/>
     </row>
     <row r="51" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51"/>
-      <c r="C51" s="49"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="50"/>
       <c r="E51" s="50"/>
-      <c r="M51" s="58"/>
+      <c r="M51" s="32"/>
     </row>
     <row r="52" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="32"/>
-      <c r="B52" s="33"/>
+      <c r="B52" s="51"/>
       <c r="C52" s="50"/>
       <c r="E52" s="50"/>
-      <c r="M52" s="32"/>
+      <c r="M52" s="46"/>
     </row>
     <row r="53" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="51"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="3"/>
       <c r="C53" s="50"/>
       <c r="E53" s="50"/>
       <c r="M53" s="46"/>
     </row>
     <row r="54" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="3"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="39"/>
       <c r="C54" s="50"/>
       <c r="E54" s="50"/>
       <c r="M54" s="46"/>
     </row>
     <row r="55" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
-      <c r="B55" s="39"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="50"/>
       <c r="E55" s="50"/>
       <c r="M55" s="46"/>
     </row>
     <row r="56" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="51"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="3"/>
       <c r="C56" s="50"/>
       <c r="E56" s="50"/>
       <c r="M56" s="46"/>
     </row>
     <row r="57" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="3"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="51"/>
       <c r="C57" s="50"/>
       <c r="E57" s="50"/>
       <c r="M57" s="46"/>
@@ -2278,40 +2273,37 @@
       <c r="M58" s="46"/>
     </row>
     <row r="59" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="51"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="3"/>
       <c r="C59" s="50"/>
       <c r="E59" s="50"/>
       <c r="M59" s="46"/>
     </row>
     <row r="60" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="3"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="M60" s="46"/>
+      <c r="E60" s="54"/>
     </row>
     <row r="61" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="50"/>
-      <c r="E61" s="54"/>
+      <c r="C61" s="66"/>
     </row>
     <row r="62" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="66"/>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
+      <c r="M63" s="46"/>
     </row>
     <row r="64" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M64" s="46"/>
     </row>
-    <row r="65" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M65" s="46"/>
+    <row r="68" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="60"/>
+      <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="60"/>
       <c r="J69" s="1"/>
+      <c r="M69" s="61"/>
     </row>
     <row r="70" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J70" s="1"/>
@@ -2319,21 +2311,21 @@
     </row>
     <row r="71" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J71" s="1"/>
-      <c r="M71" s="61"/>
     </row>
     <row r="72" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+    <row r="74" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="62"/>
       <c r="J74" s="1"/>
     </row>
     <row r="75" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="62"/>
       <c r="J75" s="1"/>
+      <c r="M75" s="63"/>
     </row>
     <row r="76" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J76" s="1"/>
@@ -2341,30 +2333,30 @@
     </row>
     <row r="77" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J77" s="1"/>
-      <c r="M77" s="63"/>
     </row>
     <row r="78" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="J80" s="1"/>
+    <row r="80" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="3"/>
+      <c r="M81" s="46"/>
     </row>
     <row r="82" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M82" s="46"/>
     </row>
-    <row r="83" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M83" s="46"/>
+    <row r="86" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="62"/>
+      <c r="J86" s="1"/>
     </row>
     <row r="87" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="62"/>
       <c r="J87" s="1"/>
+      <c r="M87" s="63"/>
     </row>
     <row r="88" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J88" s="1"/>
@@ -2372,30 +2364,30 @@
     </row>
     <row r="89" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J89" s="1"/>
-      <c r="M89" s="63"/>
     </row>
     <row r="90" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="J92" s="1"/>
+    <row r="92" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="3"/>
     </row>
     <row r="93" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="3"/>
+      <c r="M93" s="46"/>
     </row>
     <row r="94" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M94" s="46"/>
     </row>
-    <row r="95" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M95" s="46"/>
+    <row r="98" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="62"/>
+      <c r="J98" s="1"/>
     </row>
     <row r="99" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="62"/>
       <c r="J99" s="1"/>
+      <c r="M99" s="63"/>
     </row>
     <row r="100" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J100" s="1"/>
@@ -2403,30 +2395,30 @@
     </row>
     <row r="101" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J101" s="1"/>
-      <c r="M101" s="63"/>
     </row>
     <row r="102" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="J104" s="1"/>
+    <row r="104" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="3"/>
     </row>
     <row r="105" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="3"/>
+      <c r="M105" s="46"/>
     </row>
     <row r="106" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M106" s="46"/>
     </row>
-    <row r="107" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M107" s="46"/>
+    <row r="110" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="62"/>
+      <c r="J110" s="1"/>
     </row>
     <row r="111" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="62"/>
       <c r="J111" s="1"/>
+      <c r="M111" s="63"/>
     </row>
     <row r="112" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J112" s="1"/>
@@ -2434,23 +2426,23 @@
     </row>
     <row r="113" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J113" s="1"/>
-      <c r="M113" s="63"/>
     </row>
     <row r="114" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J114" s="1"/>
-    </row>
-    <row r="115" spans="1:13" s="5" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
       <c r="J115" s="1"/>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="M116" s="1"/>
+    <row r="116" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="3"/>
+      <c r="C116" s="20"/>
     </row>
     <row r="117" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="3"/>
       <c r="C117" s="20"/>
+      <c r="M117" s="46"/>
     </row>
     <row r="118" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C118" s="20"/>
@@ -2458,7 +2450,6 @@
     </row>
     <row r="119" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C119" s="20"/>
-      <c r="M119" s="46"/>
     </row>
     <row r="120" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C120" s="20"/>
@@ -2467,19 +2458,19 @@
       <c r="C121" s="20"/>
     </row>
     <row r="122" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="20"/>
+      <c r="B122" s="3"/>
     </row>
     <row r="123" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
     </row>
     <row r="124" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="3"/>
+      <c r="B124" s="64"/>
     </row>
     <row r="125" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="64"/>
     </row>
     <row r="126" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="64"/>
+      <c r="B126" s="3"/>
     </row>
     <row r="127" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
@@ -2491,28 +2482,28 @@
       <c r="B129" s="3"/>
     </row>
     <row r="130" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="3"/>
+      <c r="B130" s="65"/>
     </row>
     <row r="131" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="65"/>
+      <c r="B131" s="3"/>
     </row>
     <row r="132" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="3"/>
-    </row>
-    <row r="133" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="21"/>
+      <c r="B132" s="21"/>
+    </row>
+    <row r="134" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="3"/>
     </row>
     <row r="135" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
     </row>
     <row r="136" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="3"/>
+      <c r="B136" s="21"/>
     </row>
     <row r="137" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="21"/>
     </row>
     <row r="138" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="21"/>
+      <c r="B138" s="3"/>
     </row>
     <row r="139" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
@@ -2525,17 +2516,18 @@
     </row>
     <row r="142" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
+      <c r="C142" s="20"/>
     </row>
     <row r="143" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="C143" s="20"/>
     </row>
     <row r="144" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="3"/>
+      <c r="B144" s="21"/>
       <c r="C144" s="20"/>
     </row>
     <row r="145" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="21"/>
+      <c r="B145" s="3"/>
       <c r="C145" s="20"/>
     </row>
     <row r="146" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2563,26 +2555,28 @@
       <c r="C151" s="20"/>
     </row>
     <row r="152" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="3"/>
+      <c r="B152" s="21"/>
       <c r="C152" s="20"/>
     </row>
     <row r="153" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="21"/>
       <c r="C153" s="20"/>
     </row>
-    <row r="154" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="20"/>
+    <row r="155" spans="1:11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="67"/>
+      <c r="C155" s="68"/>
+      <c r="D155" s="68"/>
+      <c r="E155" s="68"/>
+      <c r="F155" s="68"/>
+      <c r="G155" s="69"/>
+      <c r="H155" s="56"/>
+      <c r="I155" s="56"/>
+      <c r="K155" s="69"/>
     </row>
     <row r="156" spans="1:11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="67"/>
-      <c r="C156" s="68"/>
-      <c r="D156" s="68"/>
-      <c r="E156" s="68"/>
-      <c r="F156" s="68"/>
-      <c r="G156" s="69"/>
-      <c r="H156" s="56"/>
-      <c r="I156" s="56"/>
-      <c r="K156" s="69"/>
+      <c r="A156" s="32"/>
+      <c r="B156" s="33"/>
+      <c r="C156" s="34"/>
+      <c r="D156" s="34"/>
     </row>
     <row r="157" spans="1:11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="32"/>
@@ -2613,12 +2607,6 @@
       <c r="B161" s="33"/>
       <c r="C161" s="34"/>
       <c r="D161" s="34"/>
-    </row>
-    <row r="162" spans="1:4" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="32"/>
-      <c r="B162" s="33"/>
-      <c r="C162" s="34"/>
-      <c r="D162" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{7628E898-5CA1-4554-AD54-5C79B5B36A2A}"/>
@@ -2633,7 +2621,7 @@
   <dimension ref="A1:H2126"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,7 +2636,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -2660,72 +2648,72 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B4" s="10">
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5420,7 +5408,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5431,24 +5419,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -5470,12 +5458,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5696,15 +5681,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5729,18 +5726,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/questionnaires/RBDstandardized_questionnaireLHCS_CARI.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireLHCS_CARI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_FS_CH_guide_EN\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832511F7-FCD2-488B-9039-6BA6B5308B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D2EC03-EF91-49C1-BC1B-ACA670D9F46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1680" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,8 +436,53 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
+    <t>No, because I did not face a
+shortage of food</t>
+  </si>
+  <si>
+    <t>LhCSIStress1</t>
+  </si>
+  <si>
+    <t>LhCSIStress2</t>
+  </si>
+  <si>
+    <t>LhCSIStress3</t>
+  </si>
+  <si>
+    <t>LhCSIStress4</t>
+  </si>
+  <si>
+    <t>LhCSICrisis1</t>
+  </si>
+  <si>
+    <t>LhCSICrisis2</t>
+  </si>
+  <si>
+    <t>LhCSICrisis3</t>
+  </si>
+  <si>
+    <t>LhCSIEmergency1</t>
+  </si>
+  <si>
+    <t>LhCSIEmergency2</t>
+  </si>
+  <si>
+    <t>LhCSIEmergency3</t>
+  </si>
+  <si>
+    <t>standardized_lhcsquestionnaire</t>
+  </si>
+  <si>
+    <t>LIVELIHOOD COPING STRATEGIES 
+During the past 30 days, did anyone in your household have to engage in any following behaviours due to a lack of food or a lack of money to buy food?</t>
+  </si>
+  <si>
+    <t>STRATÉGIE D’APAPTION AUX MOYENS D’EXISTENCE
+ Au cours des 30 derniers jours, un membre de votre ménage a-t-il dû adopter un des comportements suivants en raison d'un manque de nourriture ou d'argent pour acheter de la nourriture ?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
 </t>
     </r>
     <r>
@@ -466,7 +511,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
+      <t xml:space="preserve">Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
 </t>
     </r>
     <r>
@@ -494,7 +539,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
+      <t xml:space="preserve">Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
 </t>
     </r>
     <r>
@@ -522,7 +567,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
+      <t xml:space="preserve">Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
 </t>
     </r>
     <r>
@@ -548,7 +593,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
+      <t xml:space="preserve">Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
 </t>
     </r>
     <r>
@@ -576,7 +621,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
+      <t xml:space="preserve">Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
 </t>
     </r>
     <r>
@@ -604,7 +649,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
+      <t xml:space="preserve">Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
 </t>
     </r>
     <r>
@@ -632,7 +677,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
+      <t xml:space="preserve">Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
 </t>
     </r>
     <r>
@@ -660,7 +705,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
+      <t xml:space="preserve">Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
 </t>
     </r>
     <r>
@@ -688,7 +733,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Au cours des 30 derniers jours, un membre de votre ménage a du:
+      <t xml:space="preserve">Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
 </t>
     </r>
     <r>
@@ -714,57 +759,12 @@
 en raison d'un manque de nourriture ou d'argent pour acheter de la nourriture ?</t>
     </r>
   </si>
-  <si>
-    <t>No, because I did not face a
-shortage of food</t>
-  </si>
-  <si>
-    <t>LhCSIStress1</t>
-  </si>
-  <si>
-    <t>LhCSIStress2</t>
-  </si>
-  <si>
-    <t>LhCSIStress3</t>
-  </si>
-  <si>
-    <t>LhCSIStress4</t>
-  </si>
-  <si>
-    <t>LhCSICrisis1</t>
-  </si>
-  <si>
-    <t>LhCSICrisis2</t>
-  </si>
-  <si>
-    <t>LhCSICrisis3</t>
-  </si>
-  <si>
-    <t>LhCSIEmergency1</t>
-  </si>
-  <si>
-    <t>LhCSIEmergency2</t>
-  </si>
-  <si>
-    <t>LhCSIEmergency3</t>
-  </si>
-  <si>
-    <t>standardized_lhcsquestionnaire</t>
-  </si>
-  <si>
-    <t>LIVELIHOOD COPING STRATEGIES 
-During the past 30 days, did anyone in your household have to engage in any following behaviours due to a lack of food or a lack of money to buy food?</t>
-  </si>
-  <si>
-    <t>STRATÉGIE D’APAPTION AUX MOYENS D’EXISTENCE
- Au cours des 30 derniers jours, un membre de votre ménage a-t-il dû adopter un des comportements suivants en raison d'un manque de nourriture ou d'argent pour acheter de la nourriture ?</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -984,6 +984,12 @@
       <name val="Palatino Linotype"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1113,7 +1119,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1326,6 +1332,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1730,9 +1739,9 @@
   <dimension ref="A1:Q161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1810,10 +1819,10 @@
         <v>31</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1821,13 +1830,13 @@
         <v>36</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C3" s="75" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -1838,13 +1847,13 @@
         <v>36</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C4" s="75" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1852,13 +1861,13 @@
         <v>36</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C5" s="75" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>13</v>
@@ -1869,13 +1878,13 @@
         <v>36</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C6" s="75" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1883,13 +1892,13 @@
         <v>36</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C7" s="77" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>13</v>
@@ -1900,13 +1909,13 @@
         <v>36</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C8" s="77" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1914,13 +1923,13 @@
         <v>36</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C9" s="77" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>13</v>
@@ -1931,13 +1940,13 @@
         <v>36</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C10" s="78" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1945,13 +1954,13 @@
         <v>36</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C11" s="78" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>13</v>
@@ -1962,14 +1971,17 @@
         <v>36</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C12" s="78" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>57</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="84"/>
     </row>
     <row r="16" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
@@ -2668,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>28</v>
@@ -5430,10 +5442,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>29</v>
@@ -5458,9 +5470,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5681,27 +5696,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5726,9 +5729,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0aae8104-2775-47bf-a616-40d8eadd5188"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/questionnaires/RBDstandardized_questionnaireLHCS_CARI.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireLHCS_CARI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_FS_CH_guide_EN\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D2EC03-EF91-49C1-BC1B-ACA670D9F46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D93A65B-6A5F-46A5-B2B4-6BEEAF9B888D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1680" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,6 @@
 During the past 30 days, did anyone in your household have to engage in any following behaviours due to a lack of food or a lack of money to buy food?</t>
   </si>
   <si>
-    <t>STRATÉGIE D’APAPTION AUX MOYENS D’EXISTENCE
- Au cours des 30 derniers jours, un membre de votre ménage a-t-il dû adopter un des comportements suivants en raison d'un manque de nourriture ou d'argent pour acheter de la nourriture ?</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Au cours des 30 derniers jours, est ce qu' un membre de votre ménage a du:
 </t>
@@ -758,6 +754,10 @@
       <t xml:space="preserve">
 en raison d'un manque de nourriture ou d'argent pour acheter de la nourriture ?</t>
     </r>
+  </si>
+  <si>
+    <t>STRATÉGIE D’ADAPTION AUX MOYENS D’EXISTENCE
+ Au cours des 30 derniers jours, un membre de votre ménage a-t-il dû adopter un des comportements suivants en raison d'un manque de nourriture ou d'argent pour acheter de la nourriture ?</t>
   </si>
 </sst>
 </file>
@@ -1739,9 +1739,9 @@
   <dimension ref="A1:Q161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1822,7 +1822,7 @@
         <v>60</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1836,7 +1836,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -1853,7 +1853,7 @@
         <v>47</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1867,7 +1867,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>13</v>
@@ -1884,7 +1884,7 @@
         <v>42</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>13</v>
@@ -1915,7 +1915,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1929,7 +1929,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>13</v>
@@ -1946,7 +1946,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1960,7 +1960,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>13</v>
@@ -1977,7 +1977,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2633,7 +2633,7 @@
   <dimension ref="A1:H2126"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5470,15 +5470,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9E21B46B6510944ACCC1A9E9D09B45B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b02bb79e95f874242395453643404308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0aae8104-2775-47bf-a616-40d8eadd5188" xmlns:ns4="8dd5283b-55c2-4f3c-990c-ab18dea8320e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d6c59ce88ebf0eb87405994d35ea81e" ns3:_="" ns4:_="">
     <xsd:import namespace="0aae8104-2775-47bf-a616-40d8eadd5188"/>
@@ -5695,6 +5686,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5702,14 +5702,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF46C5BC-2557-46C4-92CA-B3C69F93D2EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5724,6 +5716,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
